--- a/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
+++ b/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
+++ b/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
+++ b/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
+++ b/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -383,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -652,7 +652,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -681,7 +681,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -757,7 +757,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>value:coding.code}
@@ -1034,7 +1034,7 @@
     <t>This identifies the vital sign result type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1089,7 +1089,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1112,7 +1112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1211,7 +1211,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1287,7 +1287,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t>obs-6
@@ -1319,7 +1319,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1420,7 +1420,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1528,7 +1528,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1578,7 +1578,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1614,7 +1614,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1651,7 +1651,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -1673,7 +1673,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -2409,7 +2409,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3524,7 +3524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>145</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>181</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>219</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>241</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>250</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>264</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>282</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>318</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>333</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>360</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>390</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>400</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>429</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>439</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>457</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>545</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>551</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>559</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>568</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>574</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>578</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>584</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>605</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>613</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>622</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>631</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>634</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>640</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>643</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>646</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>648</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>649</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>650</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>651</v>
       </c>
@@ -14994,12 +14994,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP104">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
+++ b/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
+++ b/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
+++ b/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
+++ b/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
+++ b/docs/StructureDefinition-twenty-four-hour-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
